--- a/output/StructureDefinition-cbs-observation-lab.xlsx
+++ b/output/StructureDefinition-cbs-observation-lab.xlsx
@@ -1497,7 +1497,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org/"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
     &lt;code value="48018-6"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
